--- a/Domashni.xlsx
+++ b/Domashni.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savch\Desktop\UKTC\22\RECENZIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savch\Desktop\UKTC\22\RECENZIA\points_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A6ED9C-AA5C-44FA-A390-D425DA335D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A037774-4438-429E-823C-6B690E80ABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Задача 9</t>
   </si>
@@ -653,6 +653,15 @@
   </si>
   <si>
     <t>Оценка в час</t>
+  </si>
+  <si>
+    <t>Задача 2</t>
+  </si>
+  <si>
+    <t>Задача 3</t>
+  </si>
+  <si>
+    <t>Задача 4</t>
   </si>
 </sst>
 </file>
@@ -904,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -945,27 +954,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -978,16 +966,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,28 +996,19 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,10 +1020,34 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1071,10 +1065,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1340,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1370,190 +1360,190 @@
     <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="16" customFormat="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="46">
+    <row r="1" spans="1:25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="33">
         <v>221</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34">
         <v>222</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35">
         <v>223</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="49">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="43">
         <v>224</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50">
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="44">
         <v>225</v>
       </c>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
     </row>
-    <row r="2" spans="1:25" s="16" customFormat="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
+    <row r="2" spans="1:25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
     </row>
     <row r="4" spans="1:25" ht="40.5">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="D4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="36" t="s">
+      <c r="U4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="37" t="s">
+      <c r="V4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="37" t="s">
+      <c r="W4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="37" t="s">
+      <c r="X4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="37" t="s">
+      <c r="Y4" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="30"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:25" ht="20.25" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="11">
@@ -1612,13 +1602,28 @@
       <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="32"/>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="V7" s="10">
+        <v>5</v>
+      </c>
+      <c r="X7" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2">
@@ -1677,13 +1682,22 @@
       <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="32"/>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5</v>
+      </c>
+      <c r="U9" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="11">
@@ -1742,119 +1756,191 @@
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6">
+        <v>5</v>
+      </c>
+      <c r="W11" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" s="45" customFormat="1" ht="23.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:25">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="32"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="32"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="32"/>
+    </row>
+    <row r="18" spans="1:25" s="28" customFormat="1" ht="23.25">
+      <c r="A18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40">
-        <f>(C6+C7)/2+(C8+C9)/2+(C10+C11)/2</f>
-        <v>5.5</v>
-      </c>
-      <c r="D12" s="40">
-        <f>(D6+D7)/2+(D8+D9)/2+(D10+D11)/2</f>
-        <v>5.5</v>
-      </c>
-      <c r="E12" s="40">
-        <f>(E6+E7)/2+(E8+E9)/2+(E10+E11)/2</f>
-        <v>6</v>
-      </c>
-      <c r="F12" s="40">
-        <f>(F6+F7)/2+(F8+F9)/2+(F10+F11)/2</f>
-        <v>5</v>
-      </c>
-      <c r="G12" s="41">
-        <f>(G6+G7)/2+(G8+G9)/2+(G10+G11)/2</f>
-        <v>6</v>
-      </c>
-      <c r="H12" s="41">
-        <f>(H6+H7)/2+(H8+H9)/2+(H10+H11)/2</f>
-        <v>5.5</v>
-      </c>
-      <c r="I12" s="41">
-        <f>(I6+I7)/2+(I8+I9)/2+(I10+I11)/2</f>
-        <v>5.5</v>
-      </c>
-      <c r="J12" s="41">
-        <f>(J6+J7)/2+(J8+J9)/2+(J10+J11)/2</f>
-        <v>7</v>
-      </c>
-      <c r="K12" s="41">
-        <f>(K6+K7)/2+(K8+K9)/2+(K10+K11)/2</f>
-        <v>5.5</v>
-      </c>
-      <c r="L12" s="42">
-        <f>(L6+L7)/2+(L8+L9)/2+(L10+L11)/2</f>
-        <v>6.5</v>
-      </c>
-      <c r="M12" s="42">
-        <f>(M6+M7)/2+(M8+M9)/2+(M10+M11)/2</f>
-        <v>6</v>
-      </c>
-      <c r="N12" s="42">
-        <f>(N6+N7)/2+(N8+N9)/2+(N10+N11)/2</f>
-        <v>5.5</v>
-      </c>
-      <c r="O12" s="42">
-        <f>(O6+O7)/2+(O8+O9)/2+(O10+O11)/2</f>
+      <c r="B18" s="30"/>
+      <c r="C18" s="45">
+        <f>(C6+C7)/2+(C8+C9)/2+(C10+C11)/2+(C12+C13)/2+(C14+C15)/2+(C16+C17)/2</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="45">
+        <f t="shared" ref="D18:Y18" si="0">(D6+D7)/2+(D8+D9)/2+(D10+D11)/2+(D12+D13)/2+(D14+D15)/2+(D16+D17)/2</f>
+        <v>8</v>
+      </c>
+      <c r="E18" s="45">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="F18" s="45">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="G18" s="45">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="H18" s="45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I18" s="45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J18" s="45">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="K18" s="45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L18" s="45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M18" s="45">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="N18" s="45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O18" s="45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="43">
-        <f>(P6+P7)/2+(P8+P9)/2+(P10+P11)/2</f>
+      <c r="P18" s="45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="43">
-        <f>(Q6+Q7)/2+(Q8+Q9)/2+(Q10+Q11)/2</f>
+      <c r="Q18" s="45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="43">
-        <f>(R6+R7)/2+(R8+R9)/2+(R10+R11)/2</f>
+      <c r="R18" s="45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="43">
-        <f>(S6+S7)/2+(S8+S9)/2+(S10+S11)/2</f>
+      <c r="S18" s="45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="43">
-        <f>(T6+T7)/2+(T8+T9)/2+(T10+T11)/2</f>
+      <c r="T18" s="45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U12" s="44">
-        <f>(U6+U7)/2+(U8+U9)/2+(U10+U11)/2</f>
-        <v>6</v>
-      </c>
-      <c r="V12" s="44">
-        <f>(V6+V7)/2+(V8+V9)/2+(V10+V11)/2</f>
-        <v>6</v>
-      </c>
-      <c r="W12" s="44">
-        <f>(W6+W7)/2+(W8+W9)/2+(W10+W11)/2</f>
-        <v>5</v>
-      </c>
-      <c r="X12" s="44">
-        <f>(X6+X7)/2+(X8+X9)/2+(X10+X11)/2</f>
-        <v>5</v>
-      </c>
-      <c r="Y12" s="44">
-        <f>(Y6+Y7)/2+(Y8+Y9)/2+(Y10+Y11)/2</f>
-        <v>6</v>
+      <c r="U18" s="45">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="V18" s="45">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="W18" s="45">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="X18" s="45">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="Y18" s="45">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C1:F3"/>
+  <mergeCells count="14">
+    <mergeCell ref="U1:Y3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="G1:K3"/>
     <mergeCell ref="L1:O3"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="P1:T3"/>
-    <mergeCell ref="U1:Y3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C1:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
